--- a/db.xlsx
+++ b/db.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\OBSERVATORIO\PROJETOS\BI e Afins\Opera facil\analise_relatorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\OBSERVATORIO\PROJETOS\BI e Afins\Opera facil\analise-opera-facil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1578E931-93C6-4F9D-98AB-F297630D41C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC61A8C-70B3-471C-A5CA-B329F94209BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>ADENOIDECTOMIA PEDIÁTRICO</t>
   </si>
   <si>
-    <t>AMIGDALECTOMIA - PEDIATRICO</t>
-  </si>
-  <si>
     <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>POSTECTOMIA - PEDIATRICO</t>
+  </si>
+  <si>
+    <t>AMIGDALECTOMIA- PEDIATRICO</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,37 +409,37 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -456,37 +456,37 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>13</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
